--- a/MainTop/26.11.2024/таня_озон/печать_а4.xlsx
+++ b/MainTop/26.11.2024/таня_озон/печать_а4.xlsx
@@ -473,8 +473,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L109" activeCellId="0" sqref="L109"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J108" activeCellId="0" sqref="A2:J108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
